--- a/tempos_status_praetor_10176.xlsx
+++ b/tempos_status_praetor_10176.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:S255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,17 +467,67 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Executado -&gt; Encerrado Qualidade</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Hora Executado</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Hora Encerrado Qualidade</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>aberto -&gt; Encerrado Qualidade</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hora aberto</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Aberto -&gt; Em andamento</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Hora Aberto</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hora Em andamento</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Em andamento -&gt; Executado</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Reaberto -&gt; Executado 2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Hora Reaberto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Hora Executado 2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Executado 2 -&gt; Encerrado Qualidade</t>
         </is>
       </c>
     </row>
@@ -511,6 +561,16 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -539,9 +599,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" s="2" t="n">
+        <v>0.4907060185185185</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22:34:44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>04:45:19</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.742650462962963</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>22:34:44</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -573,6 +659,16 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -601,9 +697,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" s="2" t="n">
+        <v>0.5175578703703704</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23:15:03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>04:54:58</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.7639467592592593</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>23:15:03</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -635,6 +757,16 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -664,18 +796,46 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
+        <v>0.1236342592592593</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22:36:03</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>05:10:15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.72625</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>22:36:03</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
         <v>0.2365740740740741</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>05:10:15</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>10:50:55</t>
         </is>
       </c>
+      <c r="O7" s="2" t="n">
+        <v>0.3660416666666667</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -704,9 +864,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" s="2" t="n">
+        <v>0.9462037037037037</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>09:34:35</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>05:13:31</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1.181296296296296</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>09:34:35</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -735,9 +921,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" s="2" t="n">
+        <v>0.4900578703703704</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>07:03:23</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>05:17:55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1.073240740740741</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>07:03:23</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -766,9 +978,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" s="2" t="n">
+        <v>0.6097685185185185</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>09:56:29</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>05:21:55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1.190671296296296</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>09:56:29</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -800,6 +1038,16 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -831,6 +1079,16 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -860,18 +1118,46 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
+        <v>0.1228356481481482</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>22:36:47</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>05:37:51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.7075925925925926</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>22:36:47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
         <v>0.2188078703703704</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>05:37:51</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>10:52:56</t>
         </is>
       </c>
+      <c r="O13" s="2" t="n">
+        <v>0.3659490740740741</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -900,9 +1186,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" s="2" t="n">
+        <v>0.4341087962962963</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>22:37:24</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>05:41:37</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.7054050925925925</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>22:37:24</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -931,9 +1243,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" s="2" t="n">
+        <v>0.9620486111111111</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>09:58:37</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>05:43:36</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>1.177094907407407</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>09:58:37</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -962,9 +1300,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" s="2" t="n">
+        <v>0.9623958333333333</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10:00:11</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>05:45:58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>1.176539351851852</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10:00:11</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -993,9 +1357,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="G17" s="2" t="n">
+        <v>0.4320023148148148</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>09:39:36</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>05:48:23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>1.16056712962963</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>09:39:36</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1024,9 +1414,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="G18" s="2" t="n">
+        <v>0.8954745370370371</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>09:40:32</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>05:50:39</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>1.159641203703704</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>09:40:32</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1058,6 +1474,16 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1086,9 +1512,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" s="2" t="n">
+        <v>0.3621990740740741</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>23:22:01</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>05:56:06</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0.7263310185185186</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>23:22:01</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1120,6 +1572,16 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1151,6 +1613,16 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1182,6 +1654,16 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1211,8 +1693,34 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>14:15:26</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" s="2" t="n">
+        <v>1.094733796296296</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>06:06:11</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>08:22:36</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0.2450231481481482</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1244,6 +1752,16 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1275,6 +1793,16 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1306,6 +1834,16 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1334,9 +1872,35 @@
           <t>Zone 1 - Dianteira Esquerda</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="G28" s="2" t="n">
+        <v>0.8987268518518519</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>09:44:06</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>06:47:07</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>1.122905092592593</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>09:44:06</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1368,6 +1932,16 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1398,7 +1972,27 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>06:49:27</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0.1779050925925926</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>11:05:38</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1430,6 +2024,16 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1461,6 +2065,16 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1492,6 +2106,16 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1523,6 +2147,16 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1554,6 +2188,16 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1585,6 +2229,16 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +2270,16 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1645,8 +2309,34 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>23:56:52</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" s="2" t="n">
+        <v>0.5575578703703704</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>07:08:17</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>20:31:10</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>0.1428472222222222</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1678,6 +2368,16 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1709,6 +2409,26 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" s="2" t="n">
+        <v>0.612662037037037</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>07:09:37</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>21:51:51</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1740,6 +2460,16 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1768,9 +2498,35 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="G42" s="2" t="n">
+        <v>0.6424884259259259</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>10:34:56</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>07:11:04</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>1.141574074074074</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>10:34:56</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1799,9 +2555,35 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="G43" s="2" t="n">
+        <v>0.1776273148148148</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>23:25:04</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>07:11:56</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>0.675787037037037</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>23:25:04</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1833,6 +2615,16 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1864,6 +2656,16 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1892,9 +2694,35 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="G46" s="2" t="n">
+        <v>0.03143518518518518</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>23:25:39</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>07:14:18</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>0.6745486111111111</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>23:25:39</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1925,7 +2753,27 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>07:15:08</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>0.1668402777777778</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>11:15:23</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1957,6 +2805,16 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1988,6 +2846,26 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" s="2" t="n">
+        <v>0.5861921296296296</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>07:16:09</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>21:20:16</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2019,6 +2897,16 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2050,6 +2938,16 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2081,6 +2979,16 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2109,9 +3017,35 @@
           <t>Zone 3 - Asa Esquerda</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="G53" s="2" t="n">
+        <v>0.1708912037037037</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>23:26:00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>07:20:39</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>0.6703819444444444</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>23:26:00</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2143,6 +3077,26 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" s="2" t="n">
+        <v>0.567337962962963</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>07:21:27</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>20:58:25</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2174,6 +3128,16 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2205,6 +3169,16 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2236,6 +3210,26 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" s="2" t="n">
+        <v>0.6835532407407408</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07:22:41</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>23:47:00</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2267,6 +3261,26 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" s="2" t="n">
+        <v>1.022847222222222</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>07:23:15</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>07:56:09</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2298,6 +3312,16 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2329,6 +3353,16 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2358,8 +3392,34 @@
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>14:37:27</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" s="2" t="n">
+        <v>1.019606481481482</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>07:28:07</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>07:56:21</t>
+        </is>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>0.2785416666666667</v>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2391,6 +3451,16 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2420,8 +3490,34 @@
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>14:34:30</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" s="2" t="n">
+        <v>1.019247685185185</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>07:29:09</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>07:56:52</t>
+        </is>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>0.2761342592592593</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2453,6 +3549,16 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2484,6 +3590,16 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2515,6 +3631,16 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2546,6 +3672,16 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2577,6 +3713,16 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2608,6 +3754,16 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2639,6 +3795,16 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2670,6 +3836,16 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2698,9 +3874,35 @@
           <t>Zone 3 - Asa Esquerda</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="G72" s="2" t="n">
+        <v>0.04956018518518519</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>23:27:32</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>07:53:13</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>0.6488310185185185</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>23:27:32</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2732,6 +3934,16 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2760,9 +3972,35 @@
           <t>Zone 3 - Asa Esquerda</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" s="2" t="n">
+        <v>0.1670601851851852</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>23:31:24</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>07:55:15</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>0.6501041666666667</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>23:31:24</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2794,6 +4032,16 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2822,9 +4070,35 @@
           <t>Zone 3 - Asa Esquerda</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="G76" s="2" t="n">
+        <v>0.4315856481481481</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>10:06:29</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>07:59:26</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>1.088229166666667</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>10:06:29</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2855,7 +4129,27 @@
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>08:04:06</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>0.6746412037037037</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>00:15:35</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2884,9 +4178,35 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="G78" s="2" t="n">
+        <v>0.4527430555555556</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>10:54:38</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>08:06:51</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>1.116516203703704</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>10:54:38</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2918,6 +4238,16 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2949,6 +4279,16 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2980,6 +4320,16 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3011,6 +4361,16 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3042,6 +4402,16 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3073,6 +4443,16 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3104,6 +4484,16 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3135,6 +4525,16 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3163,9 +4563,59 @@
           <t>Zone 3 - Asa Esquerda</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="G87" s="2" t="n">
+        <v>0.002048611111111111</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>14:00:30</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>08:14:25</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>1.240335648148148</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>14:00:30</t>
+        </is>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1.236759259259259</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>08:14:25</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>13:55:21</t>
+        </is>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>0.001527777777777778</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>0.0006597222222222222</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>13:58:33</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>13:59:30</t>
+        </is>
+      </c>
+      <c r="S87" s="2" t="n">
+        <v>0.0006944444444444445</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3197,6 +4647,16 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3228,6 +4688,16 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3259,6 +4729,16 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3290,6 +4770,16 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3321,6 +4811,16 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3352,6 +4852,16 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3380,9 +4890,35 @@
           <t>Zone 7 - Empenagem lado Esquerdo</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="G94" s="2" t="n">
+        <v>0.0583912037037037</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>00:59:46</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>08:22:37</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>0.6924652777777778</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>00:59:46</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3414,6 +4950,26 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" s="2" t="n">
+        <v>0.6554629629629629</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>08:22:35</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>00:06:27</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3442,9 +4998,47 @@
           <t>Zone 5 - Traseira Esquerda</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="G96" s="2" t="n">
+        <v>0.2354513888888889</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>00:55:13</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>08:23:15</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>0.6888657407407407</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>00:55:13</t>
+        </is>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>0.3637731481481482</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>08:23:15</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>17:07:05</t>
+        </is>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>0.08964120370370371</v>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3476,6 +5070,16 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3507,6 +5111,26 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" s="2" t="n">
+        <v>0.6610300925925926</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>08:23:57</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>00:15:50</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3535,9 +5159,47 @@
           <t>Zone 5 - Traseira Esquerda</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="G99" s="2" t="n">
+        <v>0.2050347222222222</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>23:31:51</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>08:24:35</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>0.6300462962962963</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>23:31:51</t>
+        </is>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>0.3641319444444445</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>08:24:35</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>17:08:56</t>
+        </is>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>0.06087962962962963</v>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3569,6 +5231,16 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3600,6 +5272,16 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3631,6 +5313,16 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3659,9 +5351,47 @@
           <t>Zone 5 - Traseira Esquerda</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+      <c r="G103" s="2" t="n">
+        <v>0.6510532407407408</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>10:13:03</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>08:27:25</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>1.073356481481482</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>10:13:03</t>
+        </is>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>0.3635648148148148</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>08:27:25</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>17:10:57</t>
+        </is>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>0.05873842592592592</v>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3693,6 +5423,16 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3724,6 +5464,16 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3752,9 +5502,47 @@
           <t>Zone 7 - Empenagem lado Esquerdo</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
+      <c r="G106" s="2" t="n">
+        <v>0.05489583333333333</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>00:55:46</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>08:29:22</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>00:55:46</t>
+        </is>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>0.4582175925925926</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>08:29:22</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>19:29:12</t>
+        </is>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>0.1718865740740741</v>
+      </c>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3786,6 +5574,16 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3817,6 +5615,16 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3848,6 +5656,16 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3877,8 +5695,34 @@
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>19:16:31</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" s="2" t="n">
+        <v>0.3597800925925926</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>08:35:28</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>17:13:33</t>
+        </is>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>0.08539351851851852</v>
+      </c>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3910,6 +5754,16 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3938,9 +5792,47 @@
           <t>Zone 7 - Empenagem lado Esquerdo</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
+      <c r="G112" s="2" t="n">
+        <v>0.01626157407407407</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>23:32:37</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>08:39:55</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>0.6199305555555555</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>23:32:37</t>
+        </is>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>0.4519791666666667</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>08:39:55</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>19:30:46</t>
+        </is>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>0.1516898148148148</v>
+      </c>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3972,6 +5864,16 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4003,6 +5905,16 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4034,6 +5946,16 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4065,6 +5987,16 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4096,6 +6028,16 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4127,6 +6069,16 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4158,6 +6110,16 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4187,8 +6149,34 @@
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>12:18:11</t>
+        </is>
+      </c>
       <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" s="2" t="n">
+        <v>1.015231481481482</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>08:52:56</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>09:14:52</t>
+        </is>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>0.1273032407407407</v>
+      </c>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4217,9 +6205,35 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
+      <c r="G121" s="2" t="n">
+        <v>0.8225810185185185</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>10:33:13</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>08:53:49</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>1.069027777777778</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>10:33:13</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4251,6 +6265,16 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4282,6 +6306,16 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4313,6 +6347,16 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4341,9 +6385,47 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
+      <c r="G125" s="2" t="n">
+        <v>0.04224537037037037</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>00:59:00</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>08:59:53</t>
+        </is>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>0.6660532407407408</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>00:59:00</t>
+        </is>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>0.482662037037037</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>08:59:53</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>20:34:55</t>
+        </is>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>0.1411458333333333</v>
+      </c>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4375,6 +6457,16 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4404,8 +6496,34 @@
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>14:15:38</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" s="2" t="n">
+        <v>0.9611921296296296</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>09:20:39</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>08:24:46</t>
+        </is>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>0.2436574074074074</v>
+      </c>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4435,8 +6553,34 @@
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>14:15:57</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" s="2" t="n">
+        <v>0.9600231481481482</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>09:21:50</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>08:24:16</t>
+        </is>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>0.244224537037037</v>
+      </c>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4468,6 +6612,16 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4496,9 +6650,35 @@
           <t>Zone 8 - Empenagem lado Direito</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
+      <c r="G130" s="2" t="n">
+        <v>0.0321875</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>00:56:34</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>09:24:54</t>
+        </is>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>0.6469907407407407</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>00:56:34</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4530,6 +6710,16 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4561,6 +6751,16 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4589,9 +6789,47 @@
           <t>Zone 5 - Traseira Esquerda</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
+      <c r="G133" s="2" t="n">
+        <v>0.5330208333333334</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>10:29:19</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>09:35:29</t>
+        </is>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>1.037384259259259</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>10:29:19</t>
+        </is>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>0.4882291666666667</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>09:35:29</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>21:18:32</t>
+        </is>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>0.01613425925925926</v>
+      </c>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4623,6 +6861,16 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4654,6 +6902,16 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4682,9 +6940,47 @@
           <t>Zone 7 - Empenagem lado Esquerdo</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
+      <c r="G136" s="2" t="n">
+        <v>0.07725694444444445</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>00:58:39</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>09:42:18</t>
+        </is>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>0.6363541666666667</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>00:58:39</t>
+        </is>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>0.4099305555555556</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>09:42:18</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>19:32:36</t>
+        </is>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>0.1491666666666667</v>
+      </c>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4713,9 +7009,47 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
+      <c r="G137" s="2" t="n">
+        <v>0.02731481481481482</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>10:15:18</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>09:42:25</t>
+        </is>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>1.022835648148148</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>10:15:18</t>
+        </is>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>0.9588657407407407</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>09:42:25</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>08:43:11</t>
+        </is>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>0.03665509259259259</v>
+      </c>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4747,6 +7081,16 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4778,6 +7122,16 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4809,6 +7163,16 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4840,6 +7204,16 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4871,6 +7245,16 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4900,8 +7284,34 @@
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>14:16:15</t>
+        </is>
+      </c>
       <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" s="2" t="n">
+        <v>0.9459143518518518</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>09:45:46</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>08:27:53</t>
+        </is>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>0.2419212962962963</v>
+      </c>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4933,6 +7343,16 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4962,8 +7382,34 @@
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>14:16:24</t>
+        </is>
+      </c>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" s="2" t="n">
+        <v>0.9447337962962963</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>09:46:39</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>08:27:04</t>
+        </is>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>0.2425925925925926</v>
+      </c>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4993,8 +7439,34 @@
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>23:05:47</t>
+        </is>
+      </c>
       <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" s="2" t="n">
+        <v>0.4078240740740741</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>09:46:58</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>19:34:14</t>
+        </is>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>0.1469097222222222</v>
+      </c>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5026,6 +7498,16 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5056,7 +7538,27 @@
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>09:47:52</t>
+        </is>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>0.07159722222222223</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>11:30:58</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5085,9 +7587,47 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
+      <c r="G149" s="2" t="n">
+        <v>0.04695601851851852</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>10:43:14</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>09:48:20</t>
+        </is>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>1.038125</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>10:43:14</t>
+        </is>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>0.9576736111111112</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>09:48:20</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>08:47:23</t>
+        </is>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>0.03349537037037037</v>
+      </c>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5119,6 +7659,16 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5150,6 +7700,26 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" s="2" t="n">
+        <v>0.9950347222222222</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>09:50:38</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>09:43:29</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5179,8 +7749,34 @@
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
       <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" s="2" t="n">
+        <v>0.9981018518518519</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>09:52:11</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>09:49:27</t>
+        </is>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>0.1360648148148148</v>
+      </c>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5212,6 +7808,16 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5243,6 +7849,16 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5271,9 +7887,47 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
+      <c r="G155" s="2" t="n">
+        <v>0.04299768518518519</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>01:00:19</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>09:53:51</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="n">
+        <v>0.6294907407407407</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>01:00:19</t>
+        </is>
+      </c>
+      <c r="L155" s="2" t="n">
+        <v>0.448287037037037</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>09:53:51</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>20:39:23</t>
+        </is>
+      </c>
+      <c r="O155" s="2" t="n">
+        <v>0.1382060185185185</v>
+      </c>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5305,6 +7959,16 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5333,9 +7997,47 @@
           <t>Zone 5 - Traseira Esquerda</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
+      <c r="G157" s="2" t="n">
+        <v>0.634375</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>10:30:24</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>09:54:44</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="n">
+        <v>1.024768518518518</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>10:30:24</t>
+        </is>
+      </c>
+      <c r="L157" s="2" t="n">
+        <v>0.3643402777777778</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>09:54:44</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>18:39:23</t>
+        </is>
+      </c>
+      <c r="O157" s="2" t="n">
+        <v>0.02605324074074074</v>
+      </c>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5365,8 +8067,34 @@
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>13:04:40</t>
+        </is>
+      </c>
       <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" s="2" t="n">
+        <v>0.9936111111111111</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>09:55:36</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>09:46:24</t>
+        </is>
+      </c>
+      <c r="O158" s="2" t="n">
+        <v>0.1376851851851852</v>
+      </c>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5398,6 +8126,16 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5429,6 +8167,16 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5460,6 +8208,16 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5490,7 +8248,27 @@
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>09:57:29</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="n">
+        <v>0.06534722222222222</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>11:31:35</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5520,8 +8298,34 @@
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>14:18:57</t>
+        </is>
+      </c>
       <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" s="2" t="n">
+        <v>1.132800925925926</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>09:57:38</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>13:08:52</t>
+        </is>
+      </c>
+      <c r="O163" s="2" t="n">
+        <v>0.04866898148148148</v>
+      </c>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5550,9 +8354,35 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
+      <c r="G164" s="2" t="n">
+        <v>0.484212962962963</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>10:24:08</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>09:58:40</t>
+        </is>
+      </c>
+      <c r="J164" s="2" t="n">
+        <v>1.017685185185185</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>10:24:08</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5584,6 +8414,16 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5612,9 +8452,35 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
+      <c r="G166" s="2" t="n">
+        <v>0.4850925925925926</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>10:28:19</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>10:01:28</t>
+        </is>
+      </c>
+      <c r="J166" s="2" t="n">
+        <v>1.018645833333333</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>10:28:19</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5643,9 +8509,47 @@
           <t>Zone 5 - Traseira Esquerda</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
+      <c r="G167" s="2" t="n">
+        <v>0.0493287037037037</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>23:33:31</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>10:02:20</t>
+        </is>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>0.5633217592592593</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>23:33:31</t>
+        </is>
+      </c>
+      <c r="L167" s="2" t="n">
+        <v>0.4895023148148148</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>10:02:20</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>21:47:13</t>
+        </is>
+      </c>
+      <c r="O167" s="2" t="n">
+        <v>0.02449074074074074</v>
+      </c>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5677,6 +8581,16 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5708,6 +8622,16 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5739,6 +8663,16 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5770,6 +8704,16 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5798,9 +8742,47 @@
           <t>Zone 4 - Asa Direita</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
+      <c r="G172" s="2" t="n">
+        <v>0.4483796296296296</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>10:44:16</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>10:06:23</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="n">
+        <v>1.02630787037037</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>10:44:16</t>
+        </is>
+      </c>
+      <c r="L172" s="2" t="n">
+        <v>0.4420023148148148</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>10:06:23</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>20:42:52</t>
+        </is>
+      </c>
+      <c r="O172" s="2" t="n">
+        <v>0.1359259259259259</v>
+      </c>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5829,9 +8811,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
+      <c r="G173" s="2" t="n">
+        <v>0.4497337962962963</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>10:47:10</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>10:07:51</t>
+        </is>
+      </c>
+      <c r="J173" s="2" t="n">
+        <v>1.027303240740741</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>10:47:10</t>
+        </is>
+      </c>
+      <c r="L173" s="2" t="n">
+        <v>0.3335879629629629</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>10:07:51</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>18:08:13</t>
+        </is>
+      </c>
+      <c r="O173" s="2" t="n">
+        <v>0.2439814814814815</v>
+      </c>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5860,9 +8880,35 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
+      <c r="G174" s="2" t="n">
+        <v>0.04266203703703704</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>00:57:21</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>10:08:10</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="n">
+        <v>0.6174884259259259</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>00:57:21</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5891,9 +8937,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
+      <c r="G175" s="2" t="n">
+        <v>0.4361458333333333</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>10:48:18</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>10:09:34</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>1.026898148148148</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>10:48:18</t>
+        </is>
+      </c>
+      <c r="L175" s="2" t="n">
+        <v>0.3326157407407407</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>10:09:34</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>18:08:32</t>
+        </is>
+      </c>
+      <c r="O175" s="2" t="n">
+        <v>0.2581365740740741</v>
+      </c>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5923,8 +9007,34 @@
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>11:44:26</t>
+        </is>
+      </c>
       <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" s="2" t="n">
+        <v>0.9568981481481481</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>10:12:01</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>09:09:57</t>
+        </is>
+      </c>
+      <c r="O176" s="2" t="n">
+        <v>0.1072800925925926</v>
+      </c>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5953,9 +9063,35 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
+      <c r="G177" s="2" t="n">
+        <v>0.08907407407407407</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>10:53:02</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>10:15:40</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="n">
+        <v>1.025949074074074</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>10:53:02</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5984,9 +9120,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
+      <c r="G178" s="2" t="n">
+        <v>0.02571759259259259</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>00:57:50</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>10:15:57</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="n">
+        <v>0.6124189814814814</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>00:57:50</t>
+        </is>
+      </c>
+      <c r="L178" s="2" t="n">
+        <v>0.3286689814814815</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>10:15:57</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>18:09:14</t>
+        </is>
+      </c>
+      <c r="O178" s="2" t="n">
+        <v>0.2580324074074074</v>
+      </c>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6015,9 +9189,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
+      <c r="G179" s="2" t="n">
+        <v>0.4359490740740741</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>10:48:52</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>10:17:46</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="n">
+        <v>1.021597222222222</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>10:48:52</t>
+        </is>
+      </c>
+      <c r="L179" s="2" t="n">
+        <v>0.3276620370370371</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>10:17:46</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>18:09:36</t>
+        </is>
+      </c>
+      <c r="O179" s="2" t="n">
+        <v>0.2579861111111111</v>
+      </c>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6049,6 +9261,16 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6077,9 +9299,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
+      <c r="G181" s="2" t="n">
+        <v>0.02765046296296296</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>01:01:10</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>10:18:52</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="n">
+        <v>0.6127083333333333</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>01:01:10</t>
+        </is>
+      </c>
+      <c r="L181" s="2" t="n">
+        <v>0.3273032407407407</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>10:18:52</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>18:10:11</t>
+        </is>
+      </c>
+      <c r="O181" s="2" t="n">
+        <v>0.2577546296296296</v>
+      </c>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6108,9 +9368,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
+      <c r="G182" s="2" t="n">
+        <v>0.4404398148148148</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>10:49:26</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>10:19:58</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="n">
+        <v>1.020462962962963</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>10:49:26</t>
+        </is>
+      </c>
+      <c r="L182" s="2" t="n">
+        <v>0.3268287037037037</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>10:19:58</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>18:10:36</t>
+        </is>
+      </c>
+      <c r="O182" s="2" t="n">
+        <v>0.2531944444444444</v>
+      </c>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6139,9 +9437,47 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
+      <c r="G183" s="2" t="n">
+        <v>0.5708912037037037</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>10:50:44</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>10:20:48</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="n">
+        <v>1.020787037037037</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>10:50:44</t>
+        </is>
+      </c>
+      <c r="L183" s="2" t="n">
+        <v>0.2878356481481482</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>10:20:48</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>17:15:17</t>
+        </is>
+      </c>
+      <c r="O183" s="2" t="n">
+        <v>0.1620601851851852</v>
+      </c>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6172,7 +9508,27 @@
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>10:22:56</t>
+        </is>
+      </c>
+      <c r="J184" s="2" t="n">
+        <v>0.05050925925925926</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>11:35:40</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6201,9 +9557,35 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
+      <c r="G185" s="2" t="n">
+        <v>0.4198379629629629</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>07:14:19</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>10:28:04</t>
+        </is>
+      </c>
+      <c r="J185" s="2" t="n">
+        <v>0.8654513888888888</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>07:14:19</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6235,6 +9617,16 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6266,6 +9658,26 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" s="2" t="n">
+        <v>0.4829050925925926</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>10:32:41</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>22:08:04</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6294,9 +9706,35 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
+      <c r="G188" s="2" t="n">
+        <v>0.02256944444444444</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>00:54:21</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>10:33:53</t>
+        </is>
+      </c>
+      <c r="J188" s="2" t="n">
+        <v>0.5975462962962963</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>00:54:21</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6325,9 +9763,35 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
+      <c r="G189" s="2" t="n">
+        <v>0.5274421296296297</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>10:52:20</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>10:36:45</t>
+        </is>
+      </c>
+      <c r="J189" s="2" t="n">
+        <v>1.010821759259259</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>10:52:20</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6356,9 +9820,47 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
+      <c r="G190" s="2" t="n">
+        <v>0.3629166666666667</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>07:17:48</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>10:38:48</t>
+        </is>
+      </c>
+      <c r="J190" s="2" t="n">
+        <v>0.8604166666666667</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>07:17:48</t>
+        </is>
+      </c>
+      <c r="L190" s="2" t="n">
+        <v>0.4404050925925926</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>10:38:48</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>21:12:59</t>
+        </is>
+      </c>
+      <c r="O190" s="2" t="n">
+        <v>0.05709490740740741</v>
+      </c>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6390,6 +9892,16 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6418,9 +9930,47 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
+      <c r="G192" s="2" t="n">
+        <v>0.03512731481481481</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>23:36:10</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>10:46:09</t>
+        </is>
+      </c>
+      <c r="J192" s="2" t="n">
+        <v>0.5347337962962962</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>23:36:10</t>
+        </is>
+      </c>
+      <c r="L192" s="2" t="n">
+        <v>0.4928009259259259</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>10:46:09</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>22:35:47</t>
+        </is>
+      </c>
+      <c r="O192" s="2" t="n">
+        <v>0.006805555555555555</v>
+      </c>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6452,6 +10002,16 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6481,8 +10041,34 @@
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>14:28:57</t>
+        </is>
+      </c>
       <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" s="2" t="n">
+        <v>0.9204050925925926</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>10:47:12</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>08:52:35</t>
+        </is>
+      </c>
+      <c r="O194" s="2" t="n">
+        <v>0.233587962962963</v>
+      </c>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6514,6 +10100,16 @@
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6543,8 +10139,34 @@
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>12:17:46</t>
+        </is>
+      </c>
       <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" s="2" t="n">
+        <v>0.9313310185185185</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>10:48:00</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>09:09:07</t>
+        </is>
+      </c>
+      <c r="O196" s="2" t="n">
+        <v>0.1310069444444444</v>
+      </c>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6574,8 +10196,34 @@
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>12:44:36</t>
+        </is>
+      </c>
       <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" s="2" t="n">
+        <v>1.061689814814815</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>10:49:52</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>12:18:42</t>
+        </is>
+      </c>
+      <c r="O197" s="2" t="n">
+        <v>0.01798611111111111</v>
+      </c>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6607,6 +10255,16 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6638,6 +10296,16 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6669,6 +10337,16 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6700,6 +10378,16 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6731,6 +10419,16 @@
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6759,9 +10457,47 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
+      <c r="G203" s="2" t="n">
+        <v>0.3008449074074074</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>07:28:09</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>10:59:16</t>
+        </is>
+      </c>
+      <c r="J203" s="2" t="n">
+        <v>0.8533912037037037</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>07:28:09</t>
+        </is>
+      </c>
+      <c r="L203" s="2" t="n">
+        <v>0.2998032407407407</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>10:59:16</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>18:10:59</t>
+        </is>
+      </c>
+      <c r="O203" s="2" t="n">
+        <v>0.2527430555555555</v>
+      </c>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6790,9 +10526,35 @@
           <t>Zone 2 - Dianteira Direita</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
+      <c r="G204" s="2" t="n">
+        <v>0.01997685185185185</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>00:53:35</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>11:01:44</t>
+        </is>
+      </c>
+      <c r="J204" s="2" t="n">
+        <v>0.5776736111111112</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>00:53:35</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6824,6 +10586,26 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" s="2" t="n">
+        <v>0.4700578703703704</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>11:12:07</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>22:29:00</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6852,9 +10634,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
+      <c r="G206" s="2" t="n">
+        <v>0.02662037037037037</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>00:53:07</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>11:20:16</t>
+        </is>
+      </c>
+      <c r="J206" s="2" t="n">
+        <v>0.5644791666666666</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>00:53:07</t>
+        </is>
+      </c>
+      <c r="L206" s="2" t="n">
+        <v>0.2889699074074074</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>11:20:16</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>18:16:23</t>
+        </is>
+      </c>
+      <c r="O206" s="2" t="n">
+        <v>0.2488888888888889</v>
+      </c>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6886,6 +10706,16 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6915,8 +10745,34 @@
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>12:11:32</t>
+        </is>
+      </c>
       <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" s="2" t="n">
+        <v>0.3771759259259259</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>11:22:18</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>20:25:26</t>
+        </is>
+      </c>
+      <c r="O208" s="2" t="n">
+        <v>0.6570138888888889</v>
+      </c>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6948,6 +10804,16 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6976,9 +10842,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
+      <c r="G210" s="2" t="n">
+        <v>0.3003009259259259</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>07:26:51</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>11:24:25</t>
+        </is>
+      </c>
+      <c r="J210" s="2" t="n">
+        <v>0.8350231481481482</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>07:26:51</t>
+        </is>
+      </c>
+      <c r="L210" s="2" t="n">
+        <v>0.2856365740740741</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>11:24:25</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>18:15:44</t>
+        </is>
+      </c>
+      <c r="O210" s="2" t="n">
+        <v>0.2490856481481482</v>
+      </c>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7010,6 +10914,16 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7038,9 +10952,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
+      <c r="G212" s="2" t="n">
+        <v>0.02667824074074074</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>00:52:35</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>11:25:47</t>
+        </is>
+      </c>
+      <c r="J212" s="2" t="n">
+        <v>0.5602777777777778</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>00:52:35</t>
+        </is>
+      </c>
+      <c r="L212" s="2" t="n">
+        <v>0.2470833333333333</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>11:25:47</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>17:21:35</t>
+        </is>
+      </c>
+      <c r="O212" s="2" t="n">
+        <v>0.2865162037037037</v>
+      </c>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7069,9 +11021,47 @@
           <t>Zone 5 - Traseira Esquerda</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
+      <c r="G213" s="2" t="n">
+        <v>0.05825231481481481</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>00:51:58</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>11:26:13</t>
+        </is>
+      </c>
+      <c r="J213" s="2" t="n">
+        <v>0.5595486111111111</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>00:51:58</t>
+        </is>
+      </c>
+      <c r="L213" s="2" t="n">
+        <v>0.4611689814814815</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>11:26:13</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>22:30:18</t>
+        </is>
+      </c>
+      <c r="O213" s="2" t="n">
+        <v>0.04012731481481482</v>
+      </c>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7100,9 +11090,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
+      <c r="G214" s="2" t="n">
+        <v>0.299988425925926</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>07:25:52</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>11:28:27</t>
+        </is>
+      </c>
+      <c r="J214" s="2" t="n">
+        <v>0.8315393518518519</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>07:25:52</t>
+        </is>
+      </c>
+      <c r="L214" s="2" t="n">
+        <v>0.2448958333333333</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>11:28:27</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>17:21:06</t>
+        </is>
+      </c>
+      <c r="O214" s="2" t="n">
+        <v>0.2866550925925926</v>
+      </c>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7131,9 +11159,47 @@
           <t>Zone 6 - Traseira Direita</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
+      <c r="G215" s="2" t="n">
+        <v>0.6013425925925926</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>14:39:40</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>11:29:55</t>
+        </is>
+      </c>
+      <c r="J215" s="2" t="n">
+        <v>1.131770833333333</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>14:39:40</t>
+        </is>
+      </c>
+      <c r="L215" s="2" t="n">
+        <v>0.243587962962963</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>11:29:55</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>17:20:41</t>
+        </is>
+      </c>
+      <c r="O215" s="2" t="n">
+        <v>0.2868402777777778</v>
+      </c>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7165,6 +11231,16 @@
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7196,6 +11272,16 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7227,6 +11313,16 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7256,8 +11352,34 @@
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>00:13:18</t>
+        </is>
+      </c>
       <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" s="2" t="n">
+        <v>0.2767592592592593</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>11:36:20</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>18:14:52</t>
+        </is>
+      </c>
+      <c r="O219" s="2" t="n">
+        <v>0.248912037037037</v>
+      </c>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7289,6 +11411,16 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7320,6 +11452,26 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" s="2" t="n">
+        <v>0.4522106481481482</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>11:40:31</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>22:31:42</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7351,6 +11503,16 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7382,6 +11544,16 @@
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7413,6 +11585,16 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7441,9 +11623,47 @@
           <t>Zone 5 - Traseira Esquerda</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
+      <c r="G225" s="2" t="n">
+        <v>0.07866898148148148</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>23:35:23</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>11:44:47</t>
+        </is>
+      </c>
+      <c r="J225" s="2" t="n">
+        <v>0.4934722222222222</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>23:35:23</t>
+        </is>
+      </c>
+      <c r="L225" s="2" t="n">
+        <v>0.402025462962963</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>11:44:47</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>21:23:42</t>
+        </is>
+      </c>
+      <c r="O225" s="2" t="n">
+        <v>0.01277777777777778</v>
+      </c>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7475,6 +11695,16 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7506,6 +11736,16 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7537,6 +11777,16 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7568,6 +11818,16 @@
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7599,6 +11859,16 @@
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7630,6 +11900,16 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7661,6 +11941,16 @@
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7692,6 +11982,16 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7723,6 +12023,893 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>21216</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Marcas Gerais (General Marks)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>MARCAS DE LIXAMENTO, INTRA E EXTRADORSO  DO AILERON</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Zone 3 - Asa Esquerda</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>21217</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Descamação (Peeling, Delamination)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>DESPLACADO NA HINGE LINE DO AILERON LH</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Zone 3 - Asa Esquerda</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>21218</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Escorrimento (Run, Sags, Curtains)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ESCORRIDO NOS REBITES DO PROFUNDOR</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Zone 7 - Empenagem lado Esquerdo</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="inlineStr"/>
+      <c r="S237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>21219</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Pontos Coloridos (Color spots/points)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>PONTOS BRANCOS NA BORDA DO PROFUNDOR</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Zone 7 - Empenagem lado Esquerdo</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
+      <c r="S238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>21220</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Marcas Gerais (General Marks)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>MARCAS DE LIXA NO INTRADORSO DO PROFUNDOR</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Zone 7 - Empenagem lado Esquerdo</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
+      <c r="R239" t="inlineStr"/>
+      <c r="S239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>21221</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Inclusão de Partículas ( Particles Inclusion )</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>PARTICULADOS NO EXTRADORSO DO PROFUNDOR</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Zone 7 - Empenagem lado Esquerdo</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
+      <c r="R240" t="inlineStr"/>
+      <c r="S240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>21222</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Fosqueamento (Hazing)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pintura fosca por toda extensão do leme RH </t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Zone 8 - Empenagem lado Direito</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="inlineStr"/>
+      <c r="S241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>21223</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Marcas Gerais (General Marks)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Marcas de lixa por toda extensão do leme em todas as cores.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Zone 8 - Empenagem lado Direito</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr"/>
+      <c r="S242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>21224</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Empoeiramento (Overspray)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Empoeiramennto na faixa roxa abaixo da 3a janela pax.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Zone 1 - Dianteira Esquerda</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>21225</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Fervilhamento (Boiling or Broken Blister, Bubbling)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fervilhado em vários pontos do leme </t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Zone 8 - Empenagem lado Direito</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>21226</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Pontos Coloridos (Color spots/points)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Pontos coloridos na faixa roxa, região entre 1a e 2a janela pax.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Zone 1 - Dianteira Esquerda</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>21227</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Vazamento de tinta (Bleeding)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vazado de tinta nas faixas </t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Zone 8 - Empenagem lado Direito</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>21228</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Casca de laranja (Orange Peel)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casca de laranja 4,1na faixa cinza </t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Zone 8 - Empenagem lado Direito</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr"/>
+      <c r="S247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>21229</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Falta de cobertura de Tinta(Covering/ Missing Paint)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Falta acabamento e pintura nas bordas da tampa da carenagem central traseira.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Zone 5 - Traseira Esquerda</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>21230</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Falta de cobertura de Tinta(Covering/ Missing Paint)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Falta de acabamento e pintura nas bordas da tampa da carenagem central traseira.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Zone 6 - Traseira Direita</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>14:09:14</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" s="2" t="n">
+        <v>0.1292013888888889</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>10:16:27</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>13:22:30</t>
+        </is>
+      </c>
+      <c r="O249" s="2" t="n">
+        <v>0.03245370370370371</v>
+      </c>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>21231</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Marcas Gerais (General Marks)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Marcas de lixamento em todo Leme LH</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Zone 7 - Empenagem lado Esquerdo</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="inlineStr"/>
+      <c r="S250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>21232</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Fosqueamento (Hazing)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pintura fosca em vários pontos do leme </t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Zone 7 - Empenagem lado Esquerdo</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>21233</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Vazamento de tinta (Bleeding)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vazamento na faixa vermelha </t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Zone 7 - Empenagem lado Esquerdo</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
+      <c r="S252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>21234</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Casca de laranja (Orange Peel)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casca de laranja na faixa cinza </t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Zone 7 - Empenagem lado Esquerdo</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>21235</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Marcas Gerais (General Marks)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Marcas de lixamento no profundor RH</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Zone 8 - Empenagem lado Direito</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>21236</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Fosqueamento (Hazing)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Fosqueamento no profundor RH</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Cabine Qualidade</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Zone 8 - Empenagem lado Direito</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="inlineStr"/>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
+      <c r="S255" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
